--- a/data/trans_dic/P18_6_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P18_6_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido tranquila en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido tranquila en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>92,42%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>7,58%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8,98%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>15,58%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>8,21%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>13,06%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>85,69%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>12,4%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15,38%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>14,31%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>13,31%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>12,37%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>7,17%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>10,23%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>9,26%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>89,0%</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7,49%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>10,32%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>9,42%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>12,6%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>11,18%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,39; 12,38</t>
+          <t>6,48; 12,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,02; 11,15</t>
+          <t>4,24; 12,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,72; 10,99</t>
+          <t>4,97; 12,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,26; 8,19</t>
+          <t>4,36; 8,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,28; 94,27</t>
+          <t>6,95; 12,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,13; 18,28</t>
+          <t>5,76; 9,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,31; 10,86</t>
+          <t>7,01; 11,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,06; 15,72</t>
+          <t>12,76; 18,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,8; 14,52</t>
+          <t>6,24; 10,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>82,87; 87,77</t>
+          <t>10,72; 15,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,49; 14,31</t>
+          <t>10,2; 14,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 9,48</t>
+          <t>12,56; 18,49</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>8,58; 12,52</t>
+          <t>11,92; 16,69</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>7,78; 10,94</t>
+          <t>11,1; 15,77</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>87,16; 90,49</t>
+          <t>10,76; 14,56</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>5,95; 10,26</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>8,74; 12,66</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>8,02; 11,11</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>10,72; 14,71</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>9,57; 12,68</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>9,73; 12,96</t>
         </is>
       </c>
     </row>
@@ -855,7 +964,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -865,62 +974,92 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>6,55%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8,01%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>14,74%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>10,88%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>13,41%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>84,56%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
+          <t>14,76%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19,67%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>15,44%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>13,67%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>11,19%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>7,85%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>9,39%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>11,09%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>89,21%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>8,02%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>9,36%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>14,17%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>10,78%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>10,71%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 11,59</t>
+          <t>5,31; 10,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 7,06</t>
+          <t>3,1; 7,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 7,82</t>
+          <t>3,64; 7,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,36; 12,45</t>
+          <t>5,54; 12,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,06; 96,09</t>
+          <t>6,48; 11,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,16; 17,84</t>
+          <t>3,88; 10,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,41; 14,56</t>
+          <t>5,28; 12,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,04; 16,44</t>
+          <t>12,26; 17,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,72; 17,57</t>
+          <t>8,45; 14,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>78,18; 88,58</t>
+          <t>10,85; 16,15</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,46; 13,42</t>
+          <t>11,81; 18,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 9,77</t>
+          <t>16,21; 23,88</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,78; 11,13</t>
+          <t>11,22; 21,49</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,3; 13,65</t>
+          <t>9,85; 19,04</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>86,09; 91,71</t>
+          <t>9,37; 13,27</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>6,36; 10,23</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>7,84; 11,02</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>9,36; 13,88</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>11,92; 16,69</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>8,12; 13,98</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>8,27; 14,0</t>
         </is>
       </c>
     </row>
@@ -1025,70 +1194,100 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>8,99%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>13,3%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>6,18%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>10,8%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>11,25%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>10,07%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10,62%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>9,54%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>5,85%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>8,65%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>7,94%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>5,22%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>8,78%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>7,93%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>9,79%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 10,72</t>
+          <t>2,67; 10,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 18,17</t>
+          <t>1,01; 10,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 10,86</t>
+          <t>3,22; 10,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 10,16</t>
+          <t>2,74; 10,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>4,35; 17,03</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>8,94; 19,01</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 10,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,85; 16,07</t>
+          <t>8,53; 19,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,6; 15,36</t>
+          <t>3,23; 11,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>7,08; 16,37</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6,28; 15,28</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 16,61</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>6,75; 12,92</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>3,33; 11,62</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>6,0; 12,24</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 10,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>6,71; 13,8</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 9,11</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 12,22</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>5,34; 11,13</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>6,45; 14,19</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>7,33%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>14,99%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>9,01%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>12,94%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>85,45%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>13,03%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16,48%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14,55%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>13,39%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>11,57%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>7,28%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>9,72%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>9,82%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>89,05%</t>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>7,43%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>9,77%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>9,98%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>12,88%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>10,95%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>11,07%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,45; 10,54</t>
+          <t>6,41; 10,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,73</t>
+          <t>4,08; 8,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,3</t>
+          <t>5,02; 8,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 8,75</t>
+          <t>5,43; 8,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,76; 94,28</t>
+          <t>7,41; 10,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,19; 16,82</t>
+          <t>5,65; 9,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,43; 10,87</t>
+          <t>6,99; 10,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,51; 14,92</t>
+          <t>13,25; 16,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,08; 14,43</t>
+          <t>7,75; 11,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>83,12; 87,56</t>
+          <t>11,45; 14,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,33; 12,95</t>
+          <t>11,43; 14,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,23; 8,69</t>
+          <t>14,42; 18,65</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>8,57; 10,89</t>
+          <t>12,49; 16,76</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,14</t>
+          <t>11,57; 15,74</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>87,5; 90,29</t>
+          <t>10,34; 12,93</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>6,32; 8,86</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>8,7; 11,1</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>8,91; 11,39</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>11,52; 14,39</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>9,64; 12,41</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>9,78; 12,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido tranquila en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,74%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>142981</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>108409</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>119577</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>100049</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>155098</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>17281</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20490</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>276913</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>149606</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>237680</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>224906</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>277567</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>33701</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>31259</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>419894</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>258015</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>357257</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>324954</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>432665</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>50982</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>51749</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>104841; 203347</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>69792; 203881</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>81719; 202442</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>71442; 135337</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>113202; 203752</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13140; 22353</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15989; 26166</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>226659; 322318</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>112194; 186275</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>194920; 280204</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>185029; 271536</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>226588; 333621</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>28079; 39310</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>26067; 37031</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>365272; 494436</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>204968; 353470</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>302395; 438005</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>276606; 383180</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>368272; 505311</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>44359; 58812</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>45059; 59994</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>105188</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>67447</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>74167</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>107360</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>120680</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5849</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>206723</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>153404</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>182568</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>202485</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>270201</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>10120</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9119</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>311911</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>220851</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>256735</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>309845</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>390882</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>14836</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>14968</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>73489; 151641</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>42465; 106409</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>50108; 102788</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>75575; 165827</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>89810; 158942</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2795; 7380</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3858; 8767</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>172027; 249658</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>117102; 205628</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>148493; 221024</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>162092; 259721</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>222683; 328081</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7355; 14091</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6567; 12700</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>261012; 369819</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>175038; 281758</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>215109; 302332</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>256235; 380035</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>328992; 460483</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>11173; 19228</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>11555; 19564</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24710</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16842</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>26722</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>24719</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>38023</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>54171</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>26265</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>46092</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>41468</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>43411</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>78881</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>43107</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>72815</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>66187</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>81434</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11199; 44680</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4280; 42552</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13509; 43760</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11604; 43603</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18388; 72003</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>34753; 77934</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13022; 48228</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>28985; 67056</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>25860; 62940</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24557; 67895</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>55462; 114049</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>23221; 75255</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>49820; 101329</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>44598; 92878</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>53664; 118019</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>340.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>316.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>272879</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>192699</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>220466</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>232127</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>313801</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>21997</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>26339</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>537807</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>329274</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>466340</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>468859</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>591179</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>43821</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>40378</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>810685</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>521972</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>686806</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>700986</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>904980</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>65818</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>66717</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>219326; 347875</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>140253; 283918</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>172609; 304399</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>185900; 298936</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>254701; 375434</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>16945; 27457</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>21065; 32405</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>475296; 601126</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>278094; 394538</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>411741; 527636</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>411296; 532084</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>517163; 668766</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>37613; 50477</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>34866; 47453</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>724415; 906557</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>443831; 622054</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>611593; 780344</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>625380; 800204</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>809497; 1010614</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>57934; 74606</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>58925; 75548</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
